--- a/SandlerTrainingSLN/Documents/Aug-Sept/CompanyLoadTest.xlsx
+++ b/SandlerTrainingSLN/Documents/Aug-Sept/CompanyLoadTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
   <si>
     <t>COMPANIESID</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>+1 (403)686-9753</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>2723 - 37Th Avenue Ne</t>
@@ -689,7 +686,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD13"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,8 +865,8 @@
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="9" t="s">
-        <v>40</v>
+      <c r="P3" s="9">
+        <v>40889</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="9">
@@ -882,7 +879,7 @@
       <c r="U3" s="10"/>
       <c r="V3" s="3"/>
       <c r="Y3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -890,7 +887,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>26</v>
@@ -899,16 +896,16 @@
         <v>27</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
@@ -939,7 +936,7 @@
       <c r="U4" s="10"/>
       <c r="V4" s="3"/>
       <c r="Y4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -947,7 +944,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>26</v>
@@ -956,16 +953,16 @@
         <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -996,7 +993,7 @@
       <c r="U5" s="10"/>
       <c r="V5" s="3"/>
       <c r="Y5" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1004,19 +1001,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -1053,7 +1050,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>26</v>
@@ -1062,16 +1059,16 @@
         <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1102,7 +1099,7 @@
       <c r="U7" s="10"/>
       <c r="V7" s="3"/>
       <c r="Y7" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -1110,7 +1107,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>26</v>
@@ -1119,16 +1116,16 @@
         <v>27</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1159,7 +1156,7 @@
       <c r="U8" s="10"/>
       <c r="V8" s="3"/>
       <c r="Y8" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -1167,19 +1164,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1216,7 +1213,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>26</v>
@@ -1225,16 +1222,16 @@
         <v>27</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1265,7 +1262,7 @@
       <c r="U10" s="10"/>
       <c r="V10" s="3"/>
       <c r="Y10" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -1273,7 +1270,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>26</v>
@@ -1282,16 +1279,16 @@
         <v>27</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -1322,7 +1319,7 @@
       <c r="U11" s="10"/>
       <c r="V11" s="3"/>
       <c r="Y11" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -1330,7 +1327,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>26</v>
@@ -1339,16 +1336,16 @@
         <v>27</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1379,7 +1376,7 @@
       <c r="U12" s="10"/>
       <c r="V12" s="3"/>
       <c r="Y12" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -1387,7 +1384,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>26</v>
@@ -1396,16 +1393,16 @@
         <v>27</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
@@ -1436,7 +1433,7 @@
       <c r="U13" s="10"/>
       <c r="V13" s="3"/>
       <c r="Y13" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/SandlerTrainingSLN/Documents/Aug-Sept/CompanyLoadTest.xlsx
+++ b/SandlerTrainingSLN/Documents/Aug-Sept/CompanyLoadTest.xlsx
@@ -105,9 +105,6 @@
     <t>Hamish</t>
   </si>
   <si>
-    <t>ABL Imaging Group Inc.</t>
-  </si>
-  <si>
     <t>T2G 0X8</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>230 11th Avenue SE</t>
+  </si>
+  <si>
+    <t>XYZ Test Inc</t>
   </si>
 </sst>
 </file>
@@ -178,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -201,6 +201,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,7 +507,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,8 +593,8 @@
       <c r="A2" s="6">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>29</v>
+      <c r="B2" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
@@ -602,16 +603,16 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="I2" s="7">
         <v>0</v>
@@ -642,7 +643,7 @@
       <c r="U2" s="10"/>
       <c r="V2" s="3"/>
       <c r="Y2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/SandlerTrainingSLN/Documents/Aug-Sept/CompanyLoadTest.xlsx
+++ b/SandlerTrainingSLN/Documents/Aug-Sept/CompanyLoadTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>COMPANYNAME</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Nothing</t>
+  </si>
+  <si>
+    <t>i4DM</t>
+  </si>
+  <si>
+    <t>DELL</t>
   </si>
 </sst>
 </file>
@@ -544,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,6 +720,154 @@
         <v>41192</v>
       </c>
       <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3">
+        <v>21076</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="6">
+        <v>41153</v>
+      </c>
+      <c r="P3" s="5">
+        <v>41213</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>41192</v>
+      </c>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3">
+        <v>21076</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="6">
+        <v>41153</v>
+      </c>
+      <c r="P4" s="5">
+        <v>41213</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>41192</v>
+      </c>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3">
+        <v>21076</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="6">
+        <v>41153</v>
+      </c>
+      <c r="P5" s="5">
+        <v>41213</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>41192</v>
+      </c>
+      <c r="R5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
